--- a/April.xlsx
+++ b/April.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\design-staff\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467ADB2-4DEC-48DD-8154-B996595B9290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27C8BA-0950-4C5F-A2EA-3B7AB6D93060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" xr2:uid="{449CFF46-FDBA-4C0D-99BD-86E99E782A9D}"/>
   </bookViews>
@@ -157,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +175,9 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DEDDF-F934-407A-A10E-46C8AD5E4DAE}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,7 +653,8 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>5.6597222222222223</v>
+        <f>SUM(B3:Y3)</f>
+        <v>6.0347222222222223</v>
       </c>
       <c r="B3" s="5">
         <v>0.3125</v>
@@ -722,11 +726,68 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="Y3" s="5">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0.39583333333333331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>